--- a/biology/Histoire de la zoologie et de la botanique/Lars_Jonsson_(artiste)/Lars_Jonsson_(artiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Lars_Jonsson_(artiste)/Lars_Jonsson_(artiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lars Jonsson, né le 22 octobre 1952 à Stockholm, est un illustrateur naturaliste et un écrivain suédois, spécialisé dans la représentation de la faune et particulièrement des oiseaux.
 Il a réalisé les illustrations de nombreux ouvrages, dont des guides d'identification des espèces.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lars Jonsson est né à Stockholm en 1952. Sa passion pour la nature, acquise pendant l'enfance, le conduit à la peinture naturaliste. À quinze ans, il expose pour la première fois ses œuvres au Muséum d'Histoire Naturelle de Stockholm.
 Il est fait docteur honoris causa de l'université d'Uppsala en 2002.
@@ -544,7 +558,9 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lars Jonsson travaille d'après nature, en observant ses sujets à l'aide d'une longue-vue terrestre.
 Il peint tant à l'aquarelle qu'à l'huile, et réalise aussi des lithographies.
@@ -576,7 +592,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Birds of Sea and Coast (1978) Penguin  (ISBN 0-14-063003-1)
 Birds of Wood, Park and Garden (1978) Penguin  (ISBN 0-14-063002-3)
